--- a/vsnp_dependencies/Mycobacterium_AF2122/Mbovis_metadata.xlsx
+++ b/vsnp_dependencies/Mycobacterium_AF2122/Mbovis_metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tstuber/vsnp3_test_dataset/vsnp_dependencies/Mycobacterium_AF2122/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tstuber/git/_github/vsnp3_test_dataset/vsnp_dependencies/Mycobacterium_AF2122/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA4B818-042F-E746-9D39-906B813C563D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639A84ED-15C8-4647-A7B2-4FB446A5B960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{76AC8359-3D16-974F-81F0-CF053E91CE34}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="274">
   <si>
     <t>SRR1791698_zc.vcf</t>
   </si>
@@ -68,6 +68,792 @@
   </si>
   <si>
     <t>SRR8073662_updated_name</t>
+  </si>
+  <si>
+    <t>SRR10993942_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR10993942_Bovine_Maiduguri-NG</t>
+  </si>
+  <si>
+    <t>SRR10993949_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR10993949_Bovine_Maiduguri-NG</t>
+  </si>
+  <si>
+    <t>SRR11418322_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR11418322_16_Cattle_ES</t>
+  </si>
+  <si>
+    <t>SRR11462868_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR11462868_2016_Cattle_Monte_Plata_DR</t>
+  </si>
+  <si>
+    <t>SRR13888764_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR13888764_15_Goat_ES</t>
+  </si>
+  <si>
+    <t>SRR13888766_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR13888766_15_Goat_ES</t>
+  </si>
+  <si>
+    <t>SRR13888775_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR13888775_15_Goat_ES</t>
+  </si>
+  <si>
+    <t>SRR14001968_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR14001968_15_Cattle_ES</t>
+  </si>
+  <si>
+    <t>SRR14001978_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR14001978_14_Cattle_ES</t>
+  </si>
+  <si>
+    <t>SRR14296097_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR14296097_BCA_Dairy004</t>
+  </si>
+  <si>
+    <t>SRR14296112_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR14296112_BCA_Dairy020</t>
+  </si>
+  <si>
+    <t>SRR14296156_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR14296156_BCA_Dairy003</t>
+  </si>
+  <si>
+    <t>SRR14296184_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR14296184_BCA_Dairy015</t>
+  </si>
+  <si>
+    <t>SRR14296310_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR14296310_BCA_Dairy006</t>
+  </si>
+  <si>
+    <t>SRR14296385_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR14296385_BCA_Dairy041</t>
+  </si>
+  <si>
+    <t>SRR14296396_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR14296396_BCA_Dairy021</t>
+  </si>
+  <si>
+    <t>SRR14296405_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR14296405_BCA_Dairy027</t>
+  </si>
+  <si>
+    <t>SRR14296409_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR14296409_BCA_Dairy015</t>
+  </si>
+  <si>
+    <t>SRR17156543_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR17156543_2019_Cattle_Kalisz_PL</t>
+  </si>
+  <si>
+    <t>SRR17156544_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR17156544_2019_Wild_boar_Bieszczady_PL</t>
+  </si>
+  <si>
+    <t>SRR1791730_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR1791730_MI_Alco_Beef_16</t>
+  </si>
+  <si>
+    <t>SRR1791732_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR1791732_MEX_TX_Fed</t>
+  </si>
+  <si>
+    <t>SRR1791733_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR1791733_DUS_TX_Fed</t>
+  </si>
+  <si>
+    <t>SRR1791734_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR1791734_TAM_TX_Fed</t>
+  </si>
+  <si>
+    <t>SRR1791737_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR1791737_MEX_TX_Fed</t>
+  </si>
+  <si>
+    <t>SRR1791738_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR1791738_MI_Alpe_Beef_15</t>
+  </si>
+  <si>
+    <t>SRR1791741_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR1791741_UNK_TX_Fed</t>
+  </si>
+  <si>
+    <t>SRR1791752_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR1791752_MEX_TX_Fed</t>
+  </si>
+  <si>
+    <t>SRR1791753_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR1791753_CHI_TX_Fed</t>
+  </si>
+  <si>
+    <t>SRR1791770_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR1791770_MEX_TX_Fed</t>
+  </si>
+  <si>
+    <t>SRR1791785_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR1791785_DUN_TX_Fed</t>
+  </si>
+  <si>
+    <t>SRR1791786_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR1791786_MEX_KS_Fed</t>
+  </si>
+  <si>
+    <t>SRR1791790_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR1791790_MEX_TX_Fed</t>
+  </si>
+  <si>
+    <t>SRR1791792_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR1791792_MEX_KS_Fed</t>
+  </si>
+  <si>
+    <t>SRR1791804_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR1791804_MEX_AZ_Fed</t>
+  </si>
+  <si>
+    <t>SRR1791810_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR1791810_MI_Alpe_Beef_21</t>
+  </si>
+  <si>
+    <t>SRR1791816_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR1791816_MEX_TX_Fed</t>
+  </si>
+  <si>
+    <t>SRR1791819_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR1791819_MI_Emm_Dairy_25</t>
+  </si>
+  <si>
+    <t>SRR1791830_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR1791830_NM_Dairy_02-A</t>
+  </si>
+  <si>
+    <t>SRR1791831_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR1791831_MEX_TX_Fed</t>
+  </si>
+  <si>
+    <t>SRR1791858_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR1791858_UNK_MO_Fed</t>
+  </si>
+  <si>
+    <t>SRR1791859_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR1791859_TX_Dairy_03-A</t>
+  </si>
+  <si>
+    <t>SRR1791866_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR1791866_CA_Dairy_02-A</t>
+  </si>
+  <si>
+    <t>SRR1791867_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR1791867_CA_Dairy_02-A</t>
+  </si>
+  <si>
+    <t>SRR1791881_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR1791881_TX_Beef_03-A</t>
+  </si>
+  <si>
+    <t>SRR1791888_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR1791888_NM_Dairy_03-A</t>
+  </si>
+  <si>
+    <t>SRR1791889_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR1791889_HI_Wildlife_Feral_pig_Molokai</t>
+  </si>
+  <si>
+    <t>SRR1791901_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR1791901_NM_TB-635_Untraceable</t>
+  </si>
+  <si>
+    <t>SRR1791949_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR1791949_SD_Untraceable_Beef</t>
+  </si>
+  <si>
+    <t>SRR1791957_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR1791957_AZ_Dairy_05-A</t>
+  </si>
+  <si>
+    <t>SRR1791964_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR1791964_UNK_TX_Fed</t>
+  </si>
+  <si>
+    <t>SRR1791991_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR1791991_AGS_TX_Fed</t>
+  </si>
+  <si>
+    <t>SRR1791992_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR1791992_AGS_TX_Fed</t>
+  </si>
+  <si>
+    <t>SRR1792012_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR1792012_MI_Alpe_Beef_35</t>
+  </si>
+  <si>
+    <t>SRR1792025_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR1792025_MI_Wildlife_Opossum_38#2</t>
+  </si>
+  <si>
+    <t>SRR1792031_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR1792031_AGS_TX_Fed</t>
+  </si>
+  <si>
+    <t>SRR1792056_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR1792056_MI_Wildlife_Opossum_37</t>
+  </si>
+  <si>
+    <t>SRR1792125_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR1792125_UNK_TX_Event-Roping</t>
+  </si>
+  <si>
+    <t>SRR1792134_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR1792134_UNK_TX_Event-Roping</t>
+  </si>
+  <si>
+    <t>SRR1792135_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR1792135_UNK_TX_Event-Roping</t>
+  </si>
+  <si>
+    <t>SRR1792142_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR1792142_MN_Wildlife_Deer_08_DEER_MN06243</t>
+  </si>
+  <si>
+    <t>SRR1792143_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR1792143_MN_Wildlife_Deer_08_DEER_MN01593</t>
+  </si>
+  <si>
+    <t>SRR1792145_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR1792145_MN_Wildlife_Deer_08_DEER_MN08777</t>
+  </si>
+  <si>
+    <t>SRR1792202_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR1792202_UNK_TX_Fed</t>
+  </si>
+  <si>
+    <t>SRR1792208_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR1792208_NE_Elk_C09-A_6</t>
+  </si>
+  <si>
+    <t>SRR1792209_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR1792209_NE_Elk_C09-A_7</t>
+  </si>
+  <si>
+    <t>SRR1792218_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR1792218_NE_Elk_C09-A_21</t>
+  </si>
+  <si>
+    <t>SRR1792228_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR1792228_NE_Elk_C09-A_32</t>
+  </si>
+  <si>
+    <t>SRR1792232_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR1792232_IN_Cervid_09-A</t>
+  </si>
+  <si>
+    <t>SRR1792233_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR1792233_IN_Cervid_09-A</t>
+  </si>
+  <si>
+    <t>SRR1792235_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR1792235_IN_Cervid_09-A</t>
+  </si>
+  <si>
+    <t>SRR1792248_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR1792248_UNK_MS_Event-Roping</t>
+  </si>
+  <si>
+    <t>SRR1792303_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR1792303_UNK_CO_Fed</t>
+  </si>
+  <si>
+    <t>SRR1792305_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR1792305_NE_TB-635_Beef_Cow</t>
+  </si>
+  <si>
+    <t>SRR1792306_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR1792306_MI_Alpe_Beef_52</t>
+  </si>
+  <si>
+    <t>SRR1792313_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR1792313_ZAC_TX_Fed</t>
+  </si>
+  <si>
+    <t>SRR1792314_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR1792314_CA_Dairy_11-B</t>
+  </si>
+  <si>
+    <t>SRR1792316_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR1792316_CA_Dairy_11-B</t>
+  </si>
+  <si>
+    <t>SRR1792318_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR1792318_CA_Dairy_11-B</t>
+  </si>
+  <si>
+    <t>SRR1792319_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR1792319_SD_Beef_11-A</t>
+  </si>
+  <si>
+    <t>SRR1792327_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR1792327_CA_Dairy_11-C</t>
+  </si>
+  <si>
+    <t>SRR1792339_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR1792339_TX_Beef_12-A_2Liver</t>
+  </si>
+  <si>
+    <t>SRR1792342_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR1792342_CA_Dairy_11-B</t>
+  </si>
+  <si>
+    <t>SRR1792415_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR1792415_CA_Dairy_13-A_12AB</t>
+  </si>
+  <si>
+    <t>SRR1792421_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR1792421_MEX_TX_Fed</t>
+  </si>
+  <si>
+    <t>SRR1792433_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR1792433_MI_Saga_Dairy_56-A_44</t>
+  </si>
+  <si>
+    <t>SRR1792434_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR1792434_MI_Saga_Dairy_56-A_22-Milk</t>
+  </si>
+  <si>
+    <t>SRR1792454_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR1792454_MI_Wildlife_Raccoon_47</t>
+  </si>
+  <si>
+    <t>SRR1792458_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR1792458_Huro_MI_HO_Steer_F3</t>
+  </si>
+  <si>
+    <t>SRR3091239_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR3091239_MI_HO_Steer_F3</t>
+  </si>
+  <si>
+    <t>SRR3091253_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR3091253_MI_HO_Steer_F3</t>
+  </si>
+  <si>
+    <t>SRR5817678_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR5817678_02-5MIDNRdeerAlc</t>
+  </si>
+  <si>
+    <t>SRR5817700_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR5817700_MI_Mont_Dairy_33</t>
+  </si>
+  <si>
+    <t>SRR5817708_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR5817708_04-24MIDNRdeerMontm</t>
+  </si>
+  <si>
+    <t>SRR7236134_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR7236134_MEX_QUE_Cattle</t>
+  </si>
+  <si>
+    <t>SRR7236195_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR7236195_MEX_COA_Dairy</t>
+  </si>
+  <si>
+    <t>SRR7236196_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR7236196_MEX_HGO_Dairy</t>
+  </si>
+  <si>
+    <t>SRR7236208_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR7236208_MEX_QUE_Beef</t>
+  </si>
+  <si>
+    <t>SRR7236224_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR7236224_MEX_BCA_Dairy</t>
+  </si>
+  <si>
+    <t>SRR7236236_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR7236236_MEX_QUE_Cattle</t>
+  </si>
+  <si>
+    <t>SRR7236245_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR7236245_MEX_QUE_Beef</t>
+  </si>
+  <si>
+    <t>SRR7236263_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR7236263_MEX_Edo_Mex_Cattle</t>
+  </si>
+  <si>
+    <t>SRR7236424_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR7236424_MEX_GUA_Dairy</t>
+  </si>
+  <si>
+    <t>SRR7240150_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR7240150_NM_Dairy_17A</t>
+  </si>
+  <si>
+    <t>SRR7240151_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR7240151_NM_Dairy_17A</t>
+  </si>
+  <si>
+    <t>SRR7240152_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR7240152_NM_Dairy_17A</t>
+  </si>
+  <si>
+    <t>SRR7240190_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR7240190_TX_Dairy_01-A</t>
+  </si>
+  <si>
+    <t>SRR7240227_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR7240227_NM_Dairy_16A</t>
+  </si>
+  <si>
+    <t>SRR7240303_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR7240303_NM_Dairy_17A</t>
+  </si>
+  <si>
+    <t>SRR7240304_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR7240304_NM_Dairy_17A</t>
+  </si>
+  <si>
+    <t>SRR7240306_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR7240306_NM_Dairy_17A</t>
+  </si>
+  <si>
+    <t>SRR7240307_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR7240307_NM_Dairy_17A</t>
+  </si>
+  <si>
+    <t>SRR7240308_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR7240308_NM_Dairy_17A</t>
+  </si>
+  <si>
+    <t>SRR7240309_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR7240309_NM_Dairy_17A</t>
+  </si>
+  <si>
+    <t>SRR7240310_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR7240310_NM_Dairy_17A</t>
+  </si>
+  <si>
+    <t>SRR7240311_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR7240311_NM_Dairy_17A</t>
+  </si>
+  <si>
+    <t>SRR7240312_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR7240312_NM_Dairy_16A</t>
+  </si>
+  <si>
+    <t>SRR7240313_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR7240313_NM_Dairy_16A</t>
+  </si>
+  <si>
+    <t>SRR7240316_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR7240316_NM_Dairy_17A</t>
+  </si>
+  <si>
+    <t>SRR7240317_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR7240317_NM_Dairy_17A</t>
+  </si>
+  <si>
+    <t>SRR7240342_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR7240342_MEX_KS_Fed</t>
+  </si>
+  <si>
+    <t>SRR7240346_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR7240346_WI_Cervid_02-A</t>
+  </si>
+  <si>
+    <t>SRR7240485_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR7240485_IN_Cervid_09-B</t>
+  </si>
+  <si>
+    <t>SRR7240491_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR7240491_MEX_TX_Fed</t>
+  </si>
+  <si>
+    <t>SRR8073604_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR8073604_04-13MIDNRdeerAlp</t>
+  </si>
+  <si>
+    <t>SRR8073628_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR8073628_01-60MIDNRdeerAlp</t>
+  </si>
+  <si>
+    <t>SRR8073632_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR8073632_01-34MIDNRdeerAlp</t>
+  </si>
+  <si>
+    <t>SRR8073637_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR8073637_01-32MIDNRdeerMontm</t>
+  </si>
+  <si>
+    <t>SRR8073644_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR8073644_07-28MIDNRdeerAlc</t>
+  </si>
+  <si>
+    <t>SRR1792187_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR1792187_MI_Mont_Dairy_33</t>
+  </si>
+  <si>
+    <t>SRR1792205_zc.vcf</t>
+  </si>
+  <si>
+    <t>SRR1792205_IN_Cervid_09-B</t>
   </si>
 </sst>
 </file>
@@ -419,7 +1205,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B509ECC0-09AB-AC48-8F77-DD6CA165C27F}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -476,6 +1262,1054 @@
         <v>11</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>146</v>
+      </c>
+      <c r="B74" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>148</v>
+      </c>
+      <c r="B75" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>150</v>
+      </c>
+      <c r="B76" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>154</v>
+      </c>
+      <c r="B78" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>156</v>
+      </c>
+      <c r="B79" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>158</v>
+      </c>
+      <c r="B80" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>160</v>
+      </c>
+      <c r="B81" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>162</v>
+      </c>
+      <c r="B82" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>164</v>
+      </c>
+      <c r="B83" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>166</v>
+      </c>
+      <c r="B84" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>168</v>
+      </c>
+      <c r="B85" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>170</v>
+      </c>
+      <c r="B86" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>172</v>
+      </c>
+      <c r="B87" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>174</v>
+      </c>
+      <c r="B88" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>176</v>
+      </c>
+      <c r="B89" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>178</v>
+      </c>
+      <c r="B90" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>180</v>
+      </c>
+      <c r="B91" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>182</v>
+      </c>
+      <c r="B92" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>184</v>
+      </c>
+      <c r="B93" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>186</v>
+      </c>
+      <c r="B94" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>188</v>
+      </c>
+      <c r="B95" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>190</v>
+      </c>
+      <c r="B96" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>192</v>
+      </c>
+      <c r="B97" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>194</v>
+      </c>
+      <c r="B98" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>196</v>
+      </c>
+      <c r="B99" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>198</v>
+      </c>
+      <c r="B100" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>200</v>
+      </c>
+      <c r="B101" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>202</v>
+      </c>
+      <c r="B102" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>204</v>
+      </c>
+      <c r="B103" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>206</v>
+      </c>
+      <c r="B104" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>208</v>
+      </c>
+      <c r="B105" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>210</v>
+      </c>
+      <c r="B106" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>212</v>
+      </c>
+      <c r="B107" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>214</v>
+      </c>
+      <c r="B108" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>216</v>
+      </c>
+      <c r="B109" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>218</v>
+      </c>
+      <c r="B110" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>220</v>
+      </c>
+      <c r="B111" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>222</v>
+      </c>
+      <c r="B112" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>224</v>
+      </c>
+      <c r="B113" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>226</v>
+      </c>
+      <c r="B114" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>228</v>
+      </c>
+      <c r="B115" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>230</v>
+      </c>
+      <c r="B116" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>232</v>
+      </c>
+      <c r="B117" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>234</v>
+      </c>
+      <c r="B118" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>236</v>
+      </c>
+      <c r="B119" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>238</v>
+      </c>
+      <c r="B120" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>240</v>
+      </c>
+      <c r="B121" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>242</v>
+      </c>
+      <c r="B122" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>244</v>
+      </c>
+      <c r="B123" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>246</v>
+      </c>
+      <c r="B124" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>248</v>
+      </c>
+      <c r="B125" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>250</v>
+      </c>
+      <c r="B126" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>252</v>
+      </c>
+      <c r="B127" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>254</v>
+      </c>
+      <c r="B128" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>256</v>
+      </c>
+      <c r="B129" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>258</v>
+      </c>
+      <c r="B130" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>260</v>
+      </c>
+      <c r="B131" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>262</v>
+      </c>
+      <c r="B132" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>264</v>
+      </c>
+      <c r="B133" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>266</v>
+      </c>
+      <c r="B134" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>268</v>
+      </c>
+      <c r="B135" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>270</v>
+      </c>
+      <c r="B136" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>272</v>
+      </c>
+      <c r="B137" t="s">
+        <v>273</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
